--- a/all_DE/Bernhard Waldenfels.xlsx
+++ b/all_DE/Bernhard Waldenfels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Persons\Bernhard Waldenfels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\all_DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116ECDA-0407-45A2-B1AD-2A37E2DFF7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ABC81D-85DF-4B99-9388-095F4F195D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>title</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>https://www.deutschlandfunkkultur.de/astrid-lindgren-preis-fuer-jean-claude-mourlevat.265.de.html?drn:news_id=1243478</t>
-  </si>
-  <si>
-    <t>Flags</t>
   </si>
 </sst>
 </file>
@@ -167,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,31 +187,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -496,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,11 +512,8 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -558,11 +538,8 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -584,11 +561,8 @@
       <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -610,11 +584,8 @@
       <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -636,11 +607,8 @@
       <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -661,9 +629,6 @@
       </c>
       <c r="I6" t="s">
         <v>24</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
